--- a/data/trans_dic/P23_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,18; 36,58</t>
+          <t>27,5; 36,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,28; 38,7</t>
+          <t>28,95; 38,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,25; 29,9</t>
+          <t>21,12; 29,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,24; 35,54</t>
+          <t>25,26; 35,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,01; 37,19</t>
+          <t>26,4; 37,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,43; 24,12</t>
+          <t>15,12; 23,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,97; 34,54</t>
+          <t>28,17; 34,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,1; 36,49</t>
+          <t>29,41; 36,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,61; 25,92</t>
+          <t>19,73; 26,17</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,15; 41,96</t>
+          <t>31,73; 41,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,72; 41,09</t>
+          <t>31,29; 41,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,5; 33,6</t>
+          <t>23,83; 33,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,01; 40,92</t>
+          <t>30,9; 40,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,72; 42,81</t>
+          <t>31,96; 43,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,93; 31,97</t>
+          <t>22,47; 32,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,64; 39,92</t>
+          <t>32,68; 39,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,7; 40,31</t>
+          <t>32,74; 40,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,44; 31,2</t>
+          <t>24,2; 31,11</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,67; 51,37</t>
+          <t>42,56; 51,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,28; 47,37</t>
+          <t>39,42; 47,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,39; 46,17</t>
+          <t>37,07; 46,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,66; 33,99</t>
+          <t>21,73; 34,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,26; 38,67</t>
+          <t>26,88; 38,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,79; 39,19</t>
+          <t>24,93; 39,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,86; 46,5</t>
+          <t>38,65; 46,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,88; 43,2</t>
+          <t>36,88; 43,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>35,29; 42,99</t>
+          <t>35,41; 42,84</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,7; 48,31</t>
+          <t>42,48; 48,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,13; 46,09</t>
+          <t>40,17; 46,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,26; 41,04</t>
+          <t>35,26; 40,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,77; 37,63</t>
+          <t>30,28; 36,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,81; 41,15</t>
+          <t>33,67; 41,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,05; 41,65</t>
+          <t>34,96; 41,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,86; 43,5</t>
+          <t>39,07; 43,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,22; 43,1</t>
+          <t>38,23; 43,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,04; 40,29</t>
+          <t>36,04; 40,28</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>48,4; 59,0</t>
+          <t>47,67; 58,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,45; 47,26</t>
+          <t>38,25; 47,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,55; 43,15</t>
+          <t>35,45; 43,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,68; 35,92</t>
+          <t>28,12; 36,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,85; 32,07</t>
+          <t>24,91; 31,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,49; 33,28</t>
+          <t>26,28; 33,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,76; 43,37</t>
+          <t>36,67; 43,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,51; 36,85</t>
+          <t>31,51; 36,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,3; 36,41</t>
+          <t>31,46; 36,54</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,56; 34,68</t>
+          <t>24,65; 34,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,82; 29,46</t>
+          <t>18,96; 29,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,24; 30,63</t>
+          <t>21,01; 31,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,79; 15,47</t>
+          <t>11,64; 15,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,61; 16,95</t>
+          <t>12,76; 16,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,95; 18,22</t>
+          <t>14,01; 18,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,84; 18,74</t>
+          <t>14,83; 18,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,62; 18,6</t>
+          <t>14,66; 18,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,04; 20,18</t>
+          <t>16,01; 20,17</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>40,67; 44,09</t>
+          <t>40,56; 44,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37,91; 41,34</t>
+          <t>37,84; 41,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>33,26; 36,58</t>
+          <t>33,54; 36,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,01; 26,9</t>
+          <t>24,15; 27,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,01; 29,14</t>
+          <t>25,95; 29,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,78; 27,79</t>
+          <t>24,86; 27,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>32,6; 34,87</t>
+          <t>32,65; 34,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,27; 34,67</t>
+          <t>32,27; 34,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29,5; 31,75</t>
+          <t>29,26; 31,7</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>151612</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>148306</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>108408</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>92274</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>98879</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>66481</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>243886</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>247185</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>174890</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>130306; 171823</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>126561; 169180</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>90630; 127762</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>77480; 107809</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>83010; 117719</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>52481; 82960</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>219863; 272366</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>221043; 276905</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>153156; 203112</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>135168</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>150476</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>105649</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>133000</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>125697</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>100057</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>268168</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>276173</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>205706</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>116435; 153948</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>131038; 174169</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>89656; 124658</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>114916; 151665</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>108029; 146009</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>83402; 119324</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>241458; 294779</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>247796; 307115</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>180838; 232537</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>255021</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>272892</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>216738</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>46203</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>85248</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>52503</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>301224</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>358140</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>269241</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>230814; 278778</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>248117; 297885</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>193497; 241300</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>36456; 58372</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>69933; 101367</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>41407; 65269</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>274487; 328587</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>328061; 388525</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>243660; 294742</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>564678</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>499391</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>437536</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>241095</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>285870</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>315813</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>805774</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>785261</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>753350</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>526056; 597482</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>465106; 533168</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>405101; 468402</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>216307; 263940</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>257795; 314648</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>288381; 343131</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>762889; 845078</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>735422; 828576</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>711253; 794935</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>187624</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>218470</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>243251</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>180513</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>215446</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>216639</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>368138</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>433916</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>459890</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>167109; 205829</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>195300; 240875</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>220029; 267940</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>159938; 204729</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>189483; 241649</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>193723; 244103</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>337105; 400243</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>400481; 467740</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>427155; 496108</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>87705</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>63492</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>73041</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>169171</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>164190</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>172983</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>256876</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>227682</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>246023</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>73261; 103884</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>50607; 78375</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>60339; 90578</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>145347; 194445</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>141592; 187310</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>151222; 200287</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>229320; 285069</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>201820; 255234</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>218778; 275611</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1346</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1269</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1103</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2166</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1381810</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1353026</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1184622</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>862257</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>975331</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>924476</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2244066</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2328357</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2109099</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1326109; 1440110</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1294421; 1415449</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1134909; 1243258</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>815977; 915986</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>920672; 1033500</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>876658; 983412</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2170200; 2325416</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2249069; 2412621</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2021714; 2190228</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P23_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
